--- a/data/trans_bre/P36B02_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.830149706880314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.223555007714906</v>
+        <v>2.223555007714872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004484734535659122</v>
@@ -649,7 +649,7 @@
         <v>0.03052015795232152</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.02521698738641009</v>
+        <v>0.0252169873864097</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.823292318516261</v>
+        <v>-1.895002264947274</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.668140115721706</v>
+        <v>-1.47696282830254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3194797252290826</v>
+        <v>0.439650785357311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9315769819459117</v>
+        <v>-1.027897821764147</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0189156257199429</v>
+        <v>-0.0196527666573247</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01728584356000152</v>
+        <v>-0.01538182252348447</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.003400999951043183</v>
+        <v>0.004569154340695219</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.009856610739815277</v>
+        <v>-0.01123433515795625</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.549392218789058</v>
+        <v>2.781598715312755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.140862510861875</v>
+        <v>3.012793678739774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.665644965813164</v>
+        <v>5.303148967214518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.871107449638916</v>
+        <v>5.515837466068414</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02718761608862696</v>
+        <v>0.02952641808169628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03360600224084237</v>
+        <v>0.03261005252405832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06296885752231093</v>
+        <v>0.05810463678743738</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.06880075949308051</v>
+        <v>0.06468290816947346</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.706187490546518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.261566447510509</v>
+        <v>1.26156644751052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01425140017867827</v>
@@ -749,7 +749,7 @@
         <v>0.01865383357382963</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01402676999986546</v>
+        <v>0.01402676999986558</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.266476571056877</v>
+        <v>-1.447298826120526</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.305961243983071</v>
+        <v>-2.15854341861832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7499323520996202</v>
+        <v>-0.5996793551966413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.36387464069878</v>
+        <v>-1.330848029734554</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01359532038602275</v>
+        <v>-0.0151394338959071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02408324700771465</v>
+        <v>-0.02238830032558815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.007917861664470295</v>
+        <v>-0.006435928032637122</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0148097198740312</v>
+        <v>-0.01445629064716735</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.782344409645556</v>
+        <v>3.819872997585299</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.036556810931929</v>
+        <v>1.863306286827156</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.220564754673663</v>
+        <v>4.22991836340708</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.075390029933768</v>
+        <v>4.015787097362948</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04185983255993884</v>
+        <v>0.0424967770176452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02180292470844391</v>
+        <v>0.01991421050958486</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0471298133666334</v>
+        <v>0.04678402655613677</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04651873121876909</v>
+        <v>0.04637949574427321</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.05347813988650073</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04680348959220364</v>
+        <v>0.04680348959220365</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.465992864595228</v>
+        <v>-1.382335289280488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3074436491632755</v>
+        <v>0.2923100846480729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.774990503364527</v>
+        <v>1.873065702960218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2142494086106612</v>
+        <v>0.1412161702532556</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01589950716315619</v>
+        <v>-0.01443642136685738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003483815133349735</v>
+        <v>0.003550873650294076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01970373007519986</v>
+        <v>0.02046928594820193</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.002535272608349077</v>
+        <v>0.001742780496580048</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.222768582897724</v>
+        <v>4.217248208609939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.987853041378886</v>
+        <v>6.162634463629578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.641612992118674</v>
+        <v>7.454817954991973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.115437862443802</v>
+        <v>7.969897517349741</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04603183546031967</v>
+        <v>0.04703129929416117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0684710877175268</v>
+        <v>0.07063504061292722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0882313131728521</v>
+        <v>0.08628514289363294</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.101674836902761</v>
+        <v>0.1019666649801665</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06479161570703575</v>
+        <v>0.136080997064861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.154258790264194</v>
+        <v>-2.117194515993214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.608582390457504</v>
+        <v>-1.416590212147207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.468071410500347</v>
+        <v>-2.565593907453084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0007574650175228116</v>
+        <v>0.001601760151288466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02273179764857037</v>
+        <v>-0.02230251227929761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01699127678832013</v>
+        <v>-0.01484261943811809</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02729002697693891</v>
+        <v>-0.02835366614608981</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.380532393259322</v>
+        <v>4.661229798884762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.454299320427257</v>
+        <v>2.496467702860352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.670521545823751</v>
+        <v>2.998117250808104</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.431315772149221</v>
+        <v>3.105088909965902</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04815337650504358</v>
+        <v>0.05139736874681734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02662108827376959</v>
+        <v>0.02739944691654131</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02864627721502443</v>
+        <v>0.03243159634115053</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04014161298401114</v>
+        <v>0.03592046170658197</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.302996613262909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.793283746079388</v>
+        <v>1.793283746079399</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01538686328443688</v>
@@ -1049,7 +1049,7 @@
         <v>0.02510012014074686</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02057207611430165</v>
+        <v>0.02057207611430178</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3384333181361648</v>
+        <v>0.1477182560094944</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3485627319699806</v>
+        <v>-0.3139058861785943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9388634714572957</v>
+        <v>0.9641236314466941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.338275553240613</v>
+        <v>0.3661106948455792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.003624409155525689</v>
+        <v>0.001627622275431943</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.003634539238661103</v>
+        <v>-0.003340787468238992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01013084407355338</v>
+        <v>0.0104290022039794</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.003842271803370346</v>
+        <v>0.004030287385162734</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.785043233127321</v>
+        <v>2.674279269159337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.013816038931874</v>
+        <v>2.127912311285758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.466557451436246</v>
+        <v>3.500636703804009</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.544074539999537</v>
+        <v>3.514980937823617</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03023074026778715</v>
+        <v>0.02915325585559325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02176946878257855</v>
+        <v>0.0230757546864684</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03812064916120269</v>
+        <v>0.03848496633025054</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0411695565876873</v>
+        <v>0.04080486740365048</v>
       </c>
     </row>
     <row r="19">
